--- a/incubation/glossary/terms.xlsx
+++ b/incubation/glossary/terms.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gobehobona/Documents/GitHub/NamingAuthority/incubation/glossary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{963596E4-6C23-6641-B708-F5569367C8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A42DE-3A8F-5141-B01F-9780D32F1137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registered" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="563">
   <si>
     <t>Schema</t>
   </si>
@@ -1714,12 +1714,21 @@
   </si>
   <si>
     <t>wasDerivedFrom</t>
+  </si>
+  <si>
+    <t>https://yaml.org/</t>
+  </si>
+  <si>
+    <t>A data serialization language</t>
+  </si>
+  <si>
+    <t>YAML Ain't Markup Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2206,10 +2215,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2565,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A457"/>
   <sheetViews>
     <sheetView topLeftCell="A356" workbookViewId="0">
@@ -4871,11 +4879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5239,7 +5247,7 @@
       <c r="D21" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5282,33 +5290,43 @@
         <v>552</v>
       </c>
       <c r="B24" t="s">
+        <v>562</v>
+      </c>
+      <c r="C24" t="s">
         <v>487</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E24" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1"/>
-    <hyperlink ref="D18" r:id="rId2" location="iso:std:iso:15836:-2:ed-1:v1:en:fn:3"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D23" r:id="rId6"/>
-    <hyperlink ref="D3" r:id="rId7" location="iso:std:iso:19105:ed-2:v1:en"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="D6" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="D8" r:id="rId13" location="the-two-track-Standards-process-characteristics"/>
-    <hyperlink ref="D10" r:id="rId14"/>
-    <hyperlink ref="D12" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16" location="annex-a-terms-and-definitions"/>
-    <hyperlink ref="D13" r:id="rId17"/>
-    <hyperlink ref="D21" r:id="rId18"/>
-    <hyperlink ref="D19" r:id="rId19"/>
-    <hyperlink ref="D20" r:id="rId20"/>
-    <hyperlink ref="D17" r:id="rId21" location="record-def"/>
-    <hyperlink ref="D16" r:id="rId22"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D18" r:id="rId2" location="iso:std:iso:15836:-2:ed-1:v1:en:fn:3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId7" location="iso:std:iso:19105:ed-2:v1:en" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" location="the-two-track-Standards-process-characteristics" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D9" r:id="rId16" location="annex-a-terms-and-definitions" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D20" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D17" r:id="rId21" location="record-def" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D16" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{6935EB92-8F95-D344-ADE7-9FA9D28DE090}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/incubation/glossary/terms.xlsx
+++ b/incubation/glossary/terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gobehobona/Documents/GitHub/NamingAuthority/incubation/glossary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A42DE-3A8F-5141-B01F-9780D32F1137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B03AB-8EA7-004C-9725-C0A4A5B45177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4883,7 +4883,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
